--- a/links.xlsx
+++ b/links.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>week 1</t>
   </si>
@@ -64,13 +64,19 @@
   </si>
   <si>
     <t>http://ufldl.stanford.edu/housenumbers/</t>
+  </si>
+  <si>
+    <t>week 5</t>
+  </si>
+  <si>
+    <t>http://connectpro27335181.adobeconnect.com/pcjupgv3wqfc/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +87,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0033CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -105,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,13 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="160.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -483,6 +500,19 @@
       </c>
       <c r="B10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -493,13 +523,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="160.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -567,6 +600,19 @@
       </c>
       <c r="B10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -576,13 +622,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="160.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -652,6 +701,19 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/links.xlsx
+++ b/links.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>week 1</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>http://connectpro27335181.adobeconnect.com/pcjupgv3wqfc/</t>
+  </si>
+  <si>
+    <t>http://connectpro27335181.adobeconnect.com/pqv2erdq4kyo/</t>
+  </si>
+  <si>
+    <t>http://connectpro27335181.adobeconnect.com/p3mlv0s24ewk/</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +521,16 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -523,10 +539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,6 +631,16 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -622,10 +648,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,6 +740,16 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
